--- a/app/files/Part-Time Lecturer Requisition Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Requisition Form - template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E927885F-C12B-7A4D-950F-0FF35DCC0A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092DF98D-FE40-EE40-8987-70733D6C139A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-920" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Part-Time Lecturer Requisition Form</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>Approved by HR</t>
+  </si>
+  <si>
+    <t>Name: Cheah Wan Theng</t>
   </si>
 </sst>
 </file>
@@ -977,7 +980,7 @@
   <dimension ref="A3:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1435,7 +1438,7 @@
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="48" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="J29" s="21"/>
       <c r="K29" s="48" t="s">

--- a/app/files/Part-Time Lecturer Requisition Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Requisition Form - template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092DF98D-FE40-EE40-8987-70733D6C139A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD9253A-8043-9A4B-97B8-848AF5CE983D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-920" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -980,7 +980,7 @@
   <dimension ref="A3:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -992,7 +992,7 @@
     <col min="5" max="5" width="22.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.83203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="30.33203125" bestFit="1" customWidth="1"/>
@@ -1112,7 +1112,7 @@
       <c r="H10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="28"/>
+      <c r="I10" s="48"/>
       <c r="J10" s="21"/>
       <c r="K10" s="29"/>
     </row>

--- a/app/files/Part-Time Lecturer Requisition Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Requisition Form - template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD9253A-8043-9A4B-97B8-848AF5CE983D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA907EC-1276-D149-A7FB-B46A1334822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-920" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -578,9 +578,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -980,7 +977,7 @@
   <dimension ref="A3:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -999,19 +996,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -1046,16 +1043,16 @@
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1067,10 +1064,10 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1080,244 +1077,244 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="21"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="29"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="30"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="21"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="29"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="29"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="21"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="29"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="27" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="26" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="13"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="27" t="s">
+      <c r="G15" s="27"/>
+      <c r="H15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="31">
         <f>D15*G15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="29"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="27" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="26" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="13"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="27" t="s">
+      <c r="G16" s="27"/>
+      <c r="H16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="31">
         <f>D16*G16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="29"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="27" t="s">
+      <c r="D17" s="30"/>
+      <c r="E17" s="26" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="27" t="s">
+      <c r="G17" s="27"/>
+      <c r="H17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="31">
         <f>D17*G17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="29"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="27" t="s">
+      <c r="D18" s="30"/>
+      <c r="E18" s="26" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="27" t="s">
+      <c r="G18" s="27"/>
+      <c r="H18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="31">
         <f>D18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="29"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="29"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="38">
+      <c r="F20" s="36"/>
+      <c r="G20" s="37">
         <f>SUM(I15:I18)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="39">
+      <c r="I20" s="38">
         <f>D20*G20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="29"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="43"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
@@ -1326,10 +1323,10 @@
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="21"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1339,13 +1336,13 @@
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="44" t="s">
+      <c r="G23" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="27"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
@@ -1354,11 +1351,11 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="21"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="27"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="26"/>
     </row>
     <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
@@ -1367,104 +1364,104 @@
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="21"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="27"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="26"/>
     </row>
     <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="26" t="s">
         <v>30</v>
       </c>
       <c r="F26" s="13"/>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="26" t="s">
         <v>16</v>
       </c>
       <c r="H26" s="13"/>
-      <c r="I26" s="48" t="s">
+      <c r="I26" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="48" t="s">
+      <c r="J26" s="20"/>
+      <c r="K26" s="47" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
-      <c r="B27" s="54"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="54"/>
+      <c r="E27" s="53"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="54"/>
+      <c r="G27" s="53"/>
       <c r="H27" s="13"/>
       <c r="I27" s="15"/>
-      <c r="J27" s="21"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="15"/>
     </row>
     <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="51"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="50"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="52"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="51"/>
     </row>
     <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="26" t="s">
         <v>23</v>
       </c>
       <c r="F29" s="13"/>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="13"/>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="48" t="s">
+      <c r="J29" s="20"/>
+      <c r="K29" s="47" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="13"/>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="26" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="48" t="s">
+      <c r="I30" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="48" t="s">
+      <c r="J30" s="20"/>
+      <c r="K30" s="47" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1475,71 +1472,71 @@
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="21"/>
+      <c r="G31" s="20"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="27"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="26"/>
     </row>
     <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="21"/>
+      <c r="G32" s="20"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="27"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="26"/>
     </row>
     <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="27"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="26"/>
     </row>
     <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="27"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="26"/>
     </row>
     <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="27"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="26"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>

--- a/app/files/Part-Time Lecturer Requisition Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Requisition Form - template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA907EC-1276-D149-A7FB-B46A1334822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED00C80F-2D98-7440-8123-831CA0B42F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,10 +240,10 @@
     <t>Acknowledged by HOP</t>
   </si>
   <si>
-    <t>Approved by HR</t>
-  </si>
-  <si>
     <t>Name: Cheah Wan Theng</t>
+  </si>
+  <si>
+    <t>Received by HR</t>
   </si>
 </sst>
 </file>
@@ -976,8 +976,8 @@
   </sheetPr>
   <dimension ref="A3:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="47" t="s">

--- a/app/files/Part-Time Lecturer Requisition Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Requisition Form - template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED00C80F-2D98-7440-8123-831CA0B42F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DC0C0E-69C0-DC4E-BD67-E7F2BFCDDF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Part-Time Lecturer Requisition Form</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>Acknowledged by HOP</t>
-  </si>
-  <si>
-    <t>Name: Cheah Wan Theng</t>
   </si>
   <si>
     <t>Received by HR</t>
@@ -526,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -573,9 +570,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -668,6 +662,21 @@
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,8 +985,8 @@
   </sheetPr>
   <dimension ref="A3:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -996,19 +1005,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="54"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -1028,7 +1037,7 @@
       <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1039,504 +1048,504 @@
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="18"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="20"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="20"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="28"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="20"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="28"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="28"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="53"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="28"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="28"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="26" t="s">
+      <c r="D15" s="29"/>
+      <c r="E15" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="13"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="26" t="s">
+      <c r="G15" s="26"/>
+      <c r="H15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="30">
         <f>D15*G15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="28"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="26" t="s">
+      <c r="D16" s="29"/>
+      <c r="E16" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="13"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="26" t="s">
+      <c r="G16" s="26"/>
+      <c r="H16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="30">
         <f>D16*G16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="28"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="26" t="s">
+      <c r="D17" s="29"/>
+      <c r="E17" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="26" t="s">
+      <c r="G17" s="26"/>
+      <c r="H17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="30">
         <f>D17*G17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="28"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="26" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="26" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="30">
         <f>D18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="28"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="28"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="33" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37">
+      <c r="F20" s="35"/>
+      <c r="G20" s="36">
         <f>SUM(I15:I18)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="37">
         <f>D20*G20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="28"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="42"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="26"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="25"/>
     </row>
     <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="20"/>
+      <c r="G24" s="19"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="26"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="20"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="26"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="25"/>
     </row>
     <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F26" s="13"/>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="25" t="s">
         <v>16</v>
       </c>
       <c r="H26" s="13"/>
-      <c r="I26" s="47" t="s">
+      <c r="I26" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="47" t="s">
-        <v>32</v>
+      <c r="J26" s="19"/>
+      <c r="K26" s="46" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="53"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="53"/>
+      <c r="E27" s="52"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="53"/>
+      <c r="G27" s="52"/>
       <c r="H27" s="13"/>
       <c r="I27" s="15"/>
-      <c r="J27" s="20"/>
+      <c r="J27" s="19"/>
       <c r="K27" s="15"/>
     </row>
     <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="50"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="51"/>
-    </row>
-    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="26" t="s">
+      <c r="I28" s="50"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="50"/>
+    </row>
+    <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="55" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="55" t="s">
         <v>23</v>
       </c>
       <c r="F29" s="13"/>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="55" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="13"/>
-      <c r="I29" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="47" t="s">
+      <c r="I29" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="19"/>
+      <c r="K29" s="56" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="26" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="13"/>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="25" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="47" t="s">
+      <c r="I30" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="20"/>
-      <c r="K30" s="47" t="s">
+      <c r="J30" s="19"/>
+      <c r="K30" s="46" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="20"/>
+      <c r="G31" s="19"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="26"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="25"/>
     </row>
     <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="26" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="20"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="26"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="25"/>
     </row>
     <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="49" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="26"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="49" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="26"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="25"/>
     </row>
     <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="49" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="26"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="25"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>

--- a/app/files/Part-Time Lecturer Requisition Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Requisition Form - template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DC0C0E-69C0-DC4E-BD67-E7F2BFCDDF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A59DD1-E5FC-714C-8C8F-932A5298557C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -657,26 +657,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,16 +985,15 @@
   </sheetPr>
   <dimension ref="A3:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -1005,19 +1004,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="53"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -1037,7 +1036,7 @@
       <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1052,14 +1051,14 @@
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="57"/>
+      <c r="H6" s="55"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="17"/>
@@ -1069,7 +1068,7 @@
       <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -1110,7 +1109,7 @@
       <c r="B10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1118,7 +1117,7 @@
       <c r="H10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="56"/>
+      <c r="I10" s="54"/>
       <c r="J10" s="19"/>
       <c r="K10" s="27"/>
     </row>
@@ -1127,7 +1126,7 @@
       <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="28"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -1430,24 +1429,24 @@
     </row>
     <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="53" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="53" t="s">
         <v>23</v>
       </c>
       <c r="F29" s="13"/>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="53" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="13"/>
-      <c r="I29" s="56" t="s">
+      <c r="I29" s="54" t="s">
         <v>23</v>
       </c>
       <c r="J29" s="19"/>
-      <c r="K29" s="56" t="s">
+      <c r="K29" s="54" t="s">
         <v>2</v>
       </c>
     </row>

--- a/app/files/Part-Time Lecturer Requisition Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Requisition Form - template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A59DD1-E5FC-714C-8C8F-932A5298557C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A097E526-D1CB-384C-9176-AE9258420477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -986,7 +986,7 @@
   <dimension ref="A3:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/app/files/Part-Time Lecturer Requisition Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Requisition Form - template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A097E526-D1CB-384C-9176-AE9258420477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C349B9A-88A8-0844-879D-E75F41601C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -658,9 +658,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -985,8 +982,8 @@
   </sheetPr>
   <dimension ref="A3:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1004,19 +1001,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="58"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -1036,7 +1033,7 @@
       <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="56"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1058,7 +1055,7 @@
       <c r="G6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="55"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="17"/>
@@ -1068,7 +1065,7 @@
       <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -1109,7 +1106,7 @@
       <c r="B10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1117,7 +1114,7 @@
       <c r="H10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="54"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="19"/>
       <c r="K10" s="27"/>
     </row>
@@ -1126,7 +1123,7 @@
       <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="28"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -1427,26 +1424,26 @@
       <c r="J28" s="19"/>
       <c r="K28" s="50"/>
     </row>
-    <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="25" t="s">
         <v>23</v>
       </c>
       <c r="F29" s="13"/>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="25" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="13"/>
-      <c r="I29" s="54" t="s">
+      <c r="I29" s="46" t="s">
         <v>23</v>
       </c>
       <c r="J29" s="19"/>
-      <c r="K29" s="54" t="s">
+      <c r="K29" s="46" t="s">
         <v>2</v>
       </c>
     </row>

--- a/app/files/Part-Time Lecturer Requisition Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Requisition Form - template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C349B9A-88A8-0844-879D-E75F41601C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E4D7EC-76D1-3E49-9848-8FA729D1DC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -656,9 +656,6 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -983,7 +980,7 @@
   <dimension ref="A3:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1001,19 +998,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="57"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -1033,7 +1030,7 @@
       <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1048,14 +1045,14 @@
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="53"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="54"/>
+      <c r="H6" s="53"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="17"/>
@@ -1065,7 +1062,7 @@
       <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>

--- a/app/files/Part-Time Lecturer Requisition Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Requisition Form - template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E4D7EC-76D1-3E49-9848-8FA729D1DC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FB6C8F-785D-CE46-8C46-D87664B306C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -656,9 +656,6 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -980,7 +977,7 @@
   <dimension ref="A3:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -998,19 +995,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="56"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -1030,7 +1027,7 @@
       <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1052,7 +1049,7 @@
       <c r="G6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="53"/>
+      <c r="H6" s="52"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="17"/>
@@ -1062,7 +1059,7 @@
       <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>

--- a/app/files/Part-Time Lecturer Requisition Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Requisition Form - template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FB6C8F-785D-CE46-8C46-D87664B306C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9540A9E9-1B54-084B-891C-BC377175B709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,7 +977,7 @@
   <dimension ref="A3:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1219,9 +1219,8 @@
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
       <c r="B17" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="13"/>
+        <v>13</v>
+      </c>
       <c r="D17" s="29"/>
       <c r="E17" s="25" t="s">
         <v>25</v>
@@ -1243,7 +1242,7 @@
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
       <c r="B18" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="29"/>
